--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>S100a8</t>
+  </si>
+  <si>
+    <t>Tlr4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>S100a8</t>
-  </si>
-  <si>
-    <t>Tlr4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06543400000000001</v>
+        <v>0.9577993333333333</v>
       </c>
       <c r="H2">
-        <v>0.196302</v>
+        <v>2.873398</v>
       </c>
       <c r="I2">
-        <v>0.0007225737787795663</v>
+        <v>0.1061865869698834</v>
       </c>
       <c r="J2">
-        <v>0.0007228941990747336</v>
+        <v>0.1061865869698834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N2">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O2">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P2">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q2">
-        <v>0.5174947785906666</v>
+        <v>7.335377710016889</v>
       </c>
       <c r="R2">
-        <v>4.657453007316</v>
+        <v>66.018399390152</v>
       </c>
       <c r="S2">
-        <v>7.657854813148769E-05</v>
+        <v>0.01121593261380354</v>
       </c>
       <c r="T2">
-        <v>7.851701639326047E-05</v>
+        <v>0.01147531185560139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06543400000000001</v>
+        <v>0.9577993333333333</v>
       </c>
       <c r="H3">
-        <v>0.196302</v>
+        <v>2.873398</v>
       </c>
       <c r="I3">
-        <v>0.0007225737787795663</v>
+        <v>0.1061865869698834</v>
       </c>
       <c r="J3">
-        <v>0.0007228941990747336</v>
+        <v>0.1061865869698834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.309272</v>
       </c>
       <c r="O3">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P3">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q3">
-        <v>0.7047083013493334</v>
+        <v>10.31526639402844</v>
       </c>
       <c r="R3">
-        <v>6.342374712144</v>
+        <v>92.837397546256</v>
       </c>
       <c r="S3">
-        <v>0.0001042822861334125</v>
+        <v>0.01577223932325482</v>
       </c>
       <c r="T3">
-        <v>0.0001069220319482278</v>
+        <v>0.01613698754509107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06543400000000001</v>
+        <v>0.9577993333333333</v>
       </c>
       <c r="H4">
-        <v>0.196302</v>
+        <v>2.873398</v>
       </c>
       <c r="I4">
-        <v>0.0007225737787795663</v>
+        <v>0.1061865869698834</v>
       </c>
       <c r="J4">
-        <v>0.0007228941990747336</v>
+        <v>0.1061865869698834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N4">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O4">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P4">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q4">
-        <v>1.267999834879334</v>
+        <v>20.67552828513822</v>
       </c>
       <c r="R4">
-        <v>11.411998513914</v>
+        <v>186.079754566244</v>
       </c>
       <c r="S4">
-        <v>0.0001876378089272122</v>
+        <v>0.03161327762089643</v>
       </c>
       <c r="T4">
-        <v>0.0001923875717026757</v>
+        <v>0.03234436510709988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06543400000000001</v>
+        <v>0.9577993333333333</v>
       </c>
       <c r="H5">
-        <v>0.196302</v>
+        <v>2.873398</v>
       </c>
       <c r="I5">
-        <v>0.0007225737787795663</v>
+        <v>0.1061865869698834</v>
       </c>
       <c r="J5">
-        <v>0.0007228941990747336</v>
+        <v>0.1061865869698834</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N5">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O5">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P5">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q5">
-        <v>0.355321735254</v>
+        <v>4.709217250096334</v>
       </c>
       <c r="R5">
-        <v>2.131930411524</v>
+        <v>28.255303500578</v>
       </c>
       <c r="S5">
-        <v>5.258028434492675E-05</v>
+        <v>0.007200483114688867</v>
       </c>
       <c r="T5">
-        <v>3.59408489592868E-05</v>
+        <v>0.004911334146828238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06543400000000001</v>
+        <v>0.9577993333333333</v>
       </c>
       <c r="H6">
-        <v>0.196302</v>
+        <v>2.873398</v>
       </c>
       <c r="I6">
-        <v>0.0007225737787795663</v>
+        <v>0.1061865869698834</v>
       </c>
       <c r="J6">
-        <v>0.0007228941990747336</v>
+        <v>0.1061865869698834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N6">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O6">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P6">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q6">
-        <v>2.037411456562</v>
+        <v>26.41213202316578</v>
       </c>
       <c r="R6">
-        <v>18.336703109058</v>
+        <v>237.709188208492</v>
       </c>
       <c r="S6">
-        <v>0.0003014948512425272</v>
+        <v>0.04038465429723972</v>
       </c>
       <c r="T6">
-        <v>0.0003091267300712827</v>
+        <v>0.04131858831526283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.015257</v>
       </c>
       <c r="I7">
-        <v>0.007418018490397309</v>
+        <v>0.07447393737211704</v>
       </c>
       <c r="J7">
-        <v>0.007421307958883508</v>
+        <v>0.07447393737211704</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N7">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O7">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P7">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q7">
-        <v>5.312655882356222</v>
+        <v>5.144665402340889</v>
       </c>
       <c r="R7">
-        <v>47.813902941206</v>
+        <v>46.301988621068</v>
       </c>
       <c r="S7">
-        <v>0.0007861634378244617</v>
+        <v>0.007866291655905617</v>
       </c>
       <c r="T7">
-        <v>0.0008060639570948482</v>
+        <v>0.008048207225098537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.015257</v>
       </c>
       <c r="I8">
-        <v>0.007418018490397309</v>
+        <v>0.07447393737211704</v>
       </c>
       <c r="J8">
-        <v>0.007421307958883508</v>
+        <v>0.07447393737211704</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>32.309272</v>
       </c>
       <c r="O8">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P8">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q8">
         <v>7.234609618100444</v>
@@ -948,10 +948,10 @@
         <v>65.11148656290401</v>
       </c>
       <c r="S8">
-        <v>0.001070572928988816</v>
+        <v>0.01106185627673735</v>
       </c>
       <c r="T8">
-        <v>0.001097672837453973</v>
+        <v>0.01131767235487656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.015257</v>
       </c>
       <c r="I9">
-        <v>0.007418018490397309</v>
+        <v>0.07447393737211704</v>
       </c>
       <c r="J9">
-        <v>0.007421307958883508</v>
+        <v>0.07447393737211704</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N9">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O9">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P9">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q9">
-        <v>13.01741980845545</v>
+        <v>14.50077681731623</v>
       </c>
       <c r="R9">
-        <v>117.156778276099</v>
+        <v>130.506991355846</v>
       </c>
       <c r="S9">
-        <v>0.001926309502222223</v>
+        <v>0.02217196469770456</v>
       </c>
       <c r="T9">
-        <v>0.001975071066962227</v>
+        <v>0.02268471273128149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,10 +1042,10 @@
         <v>2.015257</v>
       </c>
       <c r="I10">
-        <v>0.007418018490397309</v>
+        <v>0.07447393737211704</v>
       </c>
       <c r="J10">
-        <v>0.007421307958883508</v>
+        <v>0.07447393737211704</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N10">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O10">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P10">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q10">
-        <v>3.647770344789</v>
+        <v>3.302808391937833</v>
       </c>
       <c r="R10">
-        <v>21.886622068734</v>
+        <v>19.816850351627</v>
       </c>
       <c r="S10">
-        <v>0.0005397947350923783</v>
+        <v>0.00505005711017358</v>
       </c>
       <c r="T10">
-        <v>0.000368972539511291</v>
+        <v>0.003444563029115575</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>2.015257</v>
       </c>
       <c r="I11">
-        <v>0.007418018490397309</v>
+        <v>0.07447393737211704</v>
       </c>
       <c r="J11">
-        <v>0.007421307958883508</v>
+        <v>0.07447393737211704</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N11">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O11">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P11">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q11">
-        <v>20.91628052550034</v>
+        <v>18.52414247681978</v>
       </c>
       <c r="R11">
-        <v>188.246524729503</v>
+        <v>166.717282291378</v>
       </c>
       <c r="S11">
-        <v>0.00309517788626943</v>
+        <v>0.02832376763159591</v>
       </c>
       <c r="T11">
-        <v>0.003173527557861168</v>
+        <v>0.02897878203174487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.924776333333334</v>
+        <v>4.021894</v>
       </c>
       <c r="H12">
-        <v>17.774329</v>
+        <v>12.065682</v>
       </c>
       <c r="I12">
-        <v>0.06542604798117814</v>
+        <v>0.4458879664578164</v>
       </c>
       <c r="J12">
-        <v>0.0654550607051676</v>
+        <v>0.4458879664578164</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N12">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O12">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P12">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q12">
-        <v>46.85699814802022</v>
+        <v>30.80197550041866</v>
       </c>
       <c r="R12">
-        <v>421.712983332182</v>
+        <v>277.217779503768</v>
       </c>
       <c r="S12">
-        <v>0.006933868777859612</v>
+        <v>0.04709680881367021</v>
       </c>
       <c r="T12">
-        <v>0.007109389010158861</v>
+        <v>0.0481859678681882</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.924776333333334</v>
+        <v>4.021894</v>
       </c>
       <c r="H13">
-        <v>17.774329</v>
+        <v>12.065682</v>
       </c>
       <c r="I13">
-        <v>0.06542604798117814</v>
+        <v>0.4458879664578164</v>
       </c>
       <c r="J13">
-        <v>0.0654550607051676</v>
+        <v>0.4458879664578164</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.309272</v>
       </c>
       <c r="O13">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P13">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q13">
-        <v>63.80840336427644</v>
+        <v>43.31482240038932</v>
       </c>
       <c r="R13">
-        <v>574.2756302784881</v>
+        <v>389.8334016035039</v>
       </c>
       <c r="S13">
-        <v>0.009442326938122952</v>
+        <v>0.06622919070114475</v>
       </c>
       <c r="T13">
-        <v>0.009681344933807665</v>
+        <v>0.06776080450986235</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.924776333333334</v>
+        <v>4.021894</v>
       </c>
       <c r="H14">
-        <v>17.774329</v>
+        <v>12.065682</v>
       </c>
       <c r="I14">
-        <v>0.06542604798117814</v>
+        <v>0.4458879664578164</v>
       </c>
       <c r="J14">
-        <v>0.0654550607051676</v>
+        <v>0.4458879664578164</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N14">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O14">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P14">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q14">
-        <v>114.8121070447115</v>
+        <v>86.81858533711066</v>
       </c>
       <c r="R14">
-        <v>1033.308963402403</v>
+        <v>781.367268033996</v>
       </c>
       <c r="S14">
-        <v>0.01698982256274213</v>
+        <v>0.1327472750908342</v>
       </c>
       <c r="T14">
-        <v>0.01741989381134399</v>
+        <v>0.135817183653</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,14 +1331,14 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.924776333333334</v>
+        <v>4.021894</v>
       </c>
       <c r="H15">
-        <v>17.774329</v>
+        <v>12.065682</v>
       </c>
       <c r="I15">
-        <v>0.06542604798117814</v>
+        <v>0.4458879664578164</v>
       </c>
       <c r="J15">
-        <v>0.0654550607051676</v>
+        <v>0.4458879664578164</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N15">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O15">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P15">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q15">
-        <v>32.172904113333</v>
+        <v>19.774468350217</v>
       </c>
       <c r="R15">
-        <v>193.037424679998</v>
+        <v>118.646810101302</v>
       </c>
       <c r="S15">
-        <v>0.004760925883894599</v>
+        <v>0.03023553977145018</v>
       </c>
       <c r="T15">
-        <v>0.003254294270774986</v>
+        <v>0.02062317716215116</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.924776333333334</v>
+        <v>4.021894</v>
       </c>
       <c r="H16">
-        <v>17.774329</v>
+        <v>12.065682</v>
       </c>
       <c r="I16">
-        <v>0.06542604798117814</v>
+        <v>0.4458879664578164</v>
       </c>
       <c r="J16">
-        <v>0.0654550607051676</v>
+        <v>0.4458879664578164</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N16">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O16">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P16">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q16">
-        <v>184.4791267399324</v>
+        <v>110.9071510224253</v>
       </c>
       <c r="R16">
-        <v>1660.312140659391</v>
+        <v>998.1643592018279</v>
       </c>
       <c r="S16">
-        <v>0.02729910381855884</v>
+        <v>0.1695791520807169</v>
       </c>
       <c r="T16">
-        <v>0.02799013867908209</v>
+        <v>0.1735008332646146</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.120417</v>
+        <v>3.368519666666666</v>
       </c>
       <c r="H17">
-        <v>0.240834</v>
+        <v>10.105559</v>
       </c>
       <c r="I17">
-        <v>0.001329739381961962</v>
+        <v>0.3734515092001832</v>
       </c>
       <c r="J17">
-        <v>0.0008868860304019541</v>
+        <v>0.3734515092001832</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.908652666666666</v>
+        <v>7.658574666666667</v>
       </c>
       <c r="N17">
-        <v>23.725958</v>
+        <v>22.975724</v>
       </c>
       <c r="O17">
-        <v>0.1059802478036631</v>
+        <v>0.1056247585863608</v>
       </c>
       <c r="P17">
-        <v>0.1086148104297394</v>
+        <v>0.1080674328374073</v>
       </c>
       <c r="Q17">
-        <v>0.952336228162</v>
+        <v>25.79805938330178</v>
       </c>
       <c r="R17">
-        <v>5.714017368972</v>
+        <v>232.182534449716</v>
       </c>
       <c r="S17">
-        <v>0.0001409261092146186</v>
+        <v>0.03944572550298146</v>
       </c>
       <c r="T17">
-        <v>9.632895806489232E-05</v>
+        <v>0.04035794588851919</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.120417</v>
+        <v>3.368519666666666</v>
       </c>
       <c r="H18">
-        <v>0.240834</v>
+        <v>10.105559</v>
       </c>
       <c r="I18">
-        <v>0.001329739381961962</v>
+        <v>0.3734515092001832</v>
       </c>
       <c r="J18">
-        <v>0.0008868860304019541</v>
+        <v>0.3734515092001832</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>32.309272</v>
       </c>
       <c r="O18">
-        <v>0.1443206066922968</v>
+        <v>0.1485332542774742</v>
       </c>
       <c r="P18">
-        <v>0.1479082721718923</v>
+        <v>0.1519682288090475</v>
       </c>
       <c r="Q18">
-        <v>1.296861868808</v>
+        <v>36.27813938256088</v>
       </c>
       <c r="R18">
-        <v>7.781171212848001</v>
+        <v>326.503254443048</v>
       </c>
       <c r="S18">
-        <v>0.0001919087943473902</v>
+        <v>0.05546996797633732</v>
       </c>
       <c r="T18">
-        <v>0.0001311777803701414</v>
+        <v>0.05675276439921755</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.120417</v>
+        <v>3.368519666666666</v>
       </c>
       <c r="H19">
-        <v>0.240834</v>
+        <v>10.105559</v>
       </c>
       <c r="I19">
-        <v>0.001329739381961962</v>
+        <v>0.3734515092001832</v>
       </c>
       <c r="J19">
-        <v>0.0008868860304019541</v>
+        <v>0.3734515092001832</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.37830233333333</v>
+        <v>21.58649266666667</v>
       </c>
       <c r="N19">
-        <v>58.134907</v>
+        <v>64.759478</v>
       </c>
       <c r="O19">
-        <v>0.2596797924831069</v>
+        <v>0.2977144150029286</v>
       </c>
       <c r="P19">
-        <v>0.2661351715768665</v>
+        <v>0.3045993475265701</v>
       </c>
       <c r="Q19">
-        <v>2.333477032073</v>
+        <v>72.71452508202245</v>
       </c>
       <c r="R19">
-        <v>14.000862192438</v>
+        <v>654.430725738202</v>
       </c>
       <c r="S19">
-        <v>0.0003453064467644971</v>
+        <v>0.1111818975934933</v>
       </c>
       <c r="T19">
-        <v>0.0002360315658701501</v>
+        <v>0.1137530860351887</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.120417</v>
+        <v>3.368519666666666</v>
       </c>
       <c r="H20">
-        <v>0.240834</v>
+        <v>10.105559</v>
       </c>
       <c r="I20">
-        <v>0.001329739381961962</v>
+        <v>0.3734515092001832</v>
       </c>
       <c r="J20">
-        <v>0.0008868860304019541</v>
+        <v>0.3734515092001832</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.430231</v>
+        <v>4.9167055</v>
       </c>
       <c r="N20">
-        <v>10.860462</v>
+        <v>9.833411</v>
       </c>
       <c r="O20">
-        <v>0.07276804928312694</v>
+        <v>0.06780972362103574</v>
       </c>
       <c r="P20">
-        <v>0.04971799331809439</v>
+        <v>0.04625192585030714</v>
       </c>
       <c r="Q20">
-        <v>0.6538921263270001</v>
+        <v>16.56201917195817</v>
       </c>
       <c r="R20">
-        <v>2.615568505308</v>
+        <v>99.37211503174899</v>
       </c>
       <c r="S20">
-        <v>9.676254088032282E-05</v>
+        <v>0.02532364362472311</v>
       </c>
       <c r="T20">
-        <v>4.409419373343561E-05</v>
+        <v>0.01727285151221217</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.120417</v>
+        <v>3.368519666666666</v>
       </c>
       <c r="H21">
-        <v>0.240834</v>
+        <v>10.105559</v>
       </c>
       <c r="I21">
-        <v>0.001329739381961962</v>
+        <v>0.3734515092001832</v>
       </c>
       <c r="J21">
-        <v>0.0008868860304019541</v>
+        <v>0.3734515092001832</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>31.136893</v>
+        <v>27.57585133333333</v>
       </c>
       <c r="N21">
-        <v>93.410679</v>
+        <v>82.727554</v>
       </c>
       <c r="O21">
-        <v>0.4172513037378061</v>
+        <v>0.3803178485122005</v>
       </c>
       <c r="P21">
-        <v>0.4276237525034073</v>
+        <v>0.3891130649766679</v>
       </c>
       <c r="Q21">
-        <v>3.749411244381001</v>
+        <v>92.88979754140955</v>
       </c>
       <c r="R21">
-        <v>22.496467466286</v>
+        <v>836.0081778726859</v>
       </c>
       <c r="S21">
-        <v>0.0005548354907551333</v>
+        <v>0.1420302745026479</v>
       </c>
       <c r="T21">
-        <v>0.0003792535323633346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>83.77446300000001</v>
-      </c>
-      <c r="H22">
-        <v>251.323389</v>
-      </c>
-      <c r="I22">
-        <v>0.925103620367683</v>
-      </c>
-      <c r="J22">
-        <v>0.9255138511064722</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>7.908652666666666</v>
-      </c>
-      <c r="N22">
-        <v>23.725958</v>
-      </c>
-      <c r="O22">
-        <v>0.1059802478036631</v>
-      </c>
-      <c r="P22">
-        <v>0.1086148104297394</v>
-      </c>
-      <c r="Q22">
-        <v>662.543130203518</v>
-      </c>
-      <c r="R22">
-        <v>5962.888171831662</v>
-      </c>
-      <c r="S22">
-        <v>0.09804271093063292</v>
-      </c>
-      <c r="T22">
-        <v>0.1005245114880275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>83.77446300000001</v>
-      </c>
-      <c r="H23">
-        <v>251.323389</v>
-      </c>
-      <c r="I23">
-        <v>0.925103620367683</v>
-      </c>
-      <c r="J23">
-        <v>0.9255138511064722</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>10.76975733333333</v>
-      </c>
-      <c r="N23">
-        <v>32.309272</v>
-      </c>
-      <c r="O23">
-        <v>0.1443206066922968</v>
-      </c>
-      <c r="P23">
-        <v>0.1479082721718923</v>
-      </c>
-      <c r="Q23">
-        <v>902.230637240312</v>
-      </c>
-      <c r="R23">
-        <v>8120.075735162809</v>
-      </c>
-      <c r="S23">
-        <v>0.1335115157447043</v>
-      </c>
-      <c r="T23">
-        <v>0.1368911545883123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>83.77446300000001</v>
-      </c>
-      <c r="H24">
-        <v>251.323389</v>
-      </c>
-      <c r="I24">
-        <v>0.925103620367683</v>
-      </c>
-      <c r="J24">
-        <v>0.9255138511064722</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>19.37830233333333</v>
-      </c>
-      <c r="N24">
-        <v>58.134907</v>
-      </c>
-      <c r="O24">
-        <v>0.2596797924831069</v>
-      </c>
-      <c r="P24">
-        <v>0.2661351715768665</v>
-      </c>
-      <c r="Q24">
-        <v>1623.406871826647</v>
-      </c>
-      <c r="R24">
-        <v>14610.66184643982</v>
-      </c>
-      <c r="S24">
-        <v>0.2402307161624508</v>
-      </c>
-      <c r="T24">
-        <v>0.2463117875609875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>83.77446300000001</v>
-      </c>
-      <c r="H25">
-        <v>251.323389</v>
-      </c>
-      <c r="I25">
-        <v>0.925103620367683</v>
-      </c>
-      <c r="J25">
-        <v>0.9255138511064722</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.430231</v>
-      </c>
-      <c r="N25">
-        <v>10.860462</v>
-      </c>
-      <c r="O25">
-        <v>0.07276804928312694</v>
-      </c>
-      <c r="P25">
-        <v>0.04971799331809439</v>
-      </c>
-      <c r="Q25">
-        <v>454.914685990953</v>
-      </c>
-      <c r="R25">
-        <v>2729.488115945718</v>
-      </c>
-      <c r="S25">
-        <v>0.06731798583891471</v>
-      </c>
-      <c r="T25">
-        <v>0.04601469146511539</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>83.77446300000001</v>
-      </c>
-      <c r="H26">
-        <v>251.323389</v>
-      </c>
-      <c r="I26">
-        <v>0.925103620367683</v>
-      </c>
-      <c r="J26">
-        <v>0.9255138511064722</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>31.136893</v>
-      </c>
-      <c r="N26">
-        <v>93.410679</v>
-      </c>
-      <c r="O26">
-        <v>0.4172513037378061</v>
-      </c>
-      <c r="P26">
-        <v>0.4276237525034073</v>
-      </c>
-      <c r="Q26">
-        <v>2608.476490563459</v>
-      </c>
-      <c r="R26">
-        <v>23476.28841507113</v>
-      </c>
-      <c r="S26">
-        <v>0.3860006916909802</v>
-      </c>
-      <c r="T26">
-        <v>0.3957717060040294</v>
+        <v>0.1453148613650455</v>
       </c>
     </row>
   </sheetData>
